--- a/NOMINA ECUADOR - FORM SERVER.xlsx
+++ b/NOMINA ECUADOR - FORM SERVER.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="19980" windowHeight="7560" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PARA DESARROLLO" sheetId="3" r:id="rId1"/>
     <sheet name="VERSIONES" sheetId="2" r:id="rId2"/>
     <sheet name="FORMULARIOS" sheetId="1" r:id="rId3"/>
+    <sheet name="PUERTOS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -757,7 +758,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1252,4 +1253,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>